--- a/tests/integration/bank_hapoalim.xlsx
+++ b/tests/integration/bank_hapoalim.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/bentlusty/billsbear/src/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/bentlusty/billsbear/tests/integration/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DB3C1C13-825B-A94A-AE3B-68C6B04B3D4D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{65050E43-F8BC-C44A-8166-C1A5085A0653}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="17500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -114,9 +114,6 @@
     <t>ללא הצמדה</t>
   </si>
   <si>
-    <t>שטראוס מים בע"מ</t>
-  </si>
-  <si>
     <t>תשלומים</t>
   </si>
   <si>
@@ -153,7 +150,10 @@
     <t xml:space="preserve">מספר חשבון  12-602-123456  תאריך הפקה  29.10.2021  </t>
   </si>
   <si>
-    <t>A I G ביטוח חובה</t>
+    <t>Insurance</t>
+  </si>
+  <si>
+    <t>Water bottle</t>
   </si>
 </sst>
 </file>
@@ -749,8 +749,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A4:N50"/>
   <sheetViews>
-    <sheetView rightToLeft="1" tabSelected="1" topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="H37" sqref="H37"/>
+    <sheetView rightToLeft="1" tabSelected="1" topLeftCell="A11" workbookViewId="0">
+      <selection activeCell="D36" sqref="D36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
@@ -776,7 +776,7 @@
     </row>
     <row r="5" spans="1:4" ht="16">
       <c r="A5" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="6" spans="1:4">
@@ -814,7 +814,7 @@
     </row>
     <row r="11" spans="1:4" ht="16">
       <c r="A11" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="12" spans="1:4">
@@ -868,7 +868,7 @@
     </row>
     <row r="19" spans="1:13" ht="16">
       <c r="A19" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="20" spans="1:13">
@@ -1045,7 +1045,7 @@
         <v>44475</v>
       </c>
       <c r="D33" s="78" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="E33" s="77">
         <v>1200.83</v>
@@ -1072,7 +1072,7 @@
         <v>6</v>
       </c>
       <c r="M33" s="78" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="34" spans="1:14">
@@ -1086,7 +1086,7 @@
         <v>44181</v>
       </c>
       <c r="D34" s="53" t="s">
-        <v>30</v>
+        <v>43</v>
       </c>
       <c r="E34" s="54">
         <v>100</v>
@@ -1113,12 +1113,12 @@
         <v>6</v>
       </c>
       <c r="M34" s="62" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="37" spans="1:14" ht="16">
       <c r="A37" s="63" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="38" spans="1:14" ht="16">
@@ -1146,7 +1146,7 @@
         <v>21</v>
       </c>
       <c r="G39" s="64" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="H39" s="64" t="s">
         <v>22</v>
@@ -1181,7 +1181,7 @@
         <v>44488</v>
       </c>
       <c r="D40" s="68" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="E40" s="69">
         <v>60.9</v>
@@ -1190,7 +1190,7 @@
         <v>60.9</v>
       </c>
       <c r="G40" s="71" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="H40" s="72">
         <v>123456</v>
@@ -1211,12 +1211,12 @@
         <v>6</v>
       </c>
       <c r="N40" s="78" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="43" spans="1:14" ht="16">
       <c r="A43" s="79" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="44" spans="1:14" ht="16">
@@ -1244,15 +1244,15 @@
         <v>14</v>
       </c>
       <c r="G45" s="80" t="s">
+        <v>37</v>
+      </c>
+      <c r="H45" s="80" t="s">
         <v>38</v>
-      </c>
-      <c r="H45" s="80" t="s">
-        <v>39</v>
       </c>
     </row>
     <row r="48" spans="1:14" ht="16">
       <c r="A48" s="81" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="49" spans="1:8" ht="16">
@@ -1280,10 +1280,10 @@
         <v>14</v>
       </c>
       <c r="G50" s="82" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="H50" s="82" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
   </sheetData>
